--- a/data/correos.xlsx
+++ b/data/correos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\PythonProjects\python-send-mail\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\python-send-mail\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424FF1BD-6355-4EFC-BD41-1CC39FCC0A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C93EE6B-E6C6-4504-961F-774B8E4DF3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10370" yWindow="960" windowWidth="15070" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -48,25 +48,10 @@
     <t>Edward</t>
   </si>
   <si>
-    <t>0333212013@unjfsc.edu.pe</t>
-  </si>
-  <si>
     <t>Prueba masicca</t>
   </si>
   <si>
     <t>Este es el mensaje</t>
-  </si>
-  <si>
-    <t>yairu.1210@gmail.com</t>
-  </si>
-  <si>
-    <t>yairu.1012@gmail.com</t>
-  </si>
-  <si>
-    <t>jair.tyler12@gmail.com</t>
-  </si>
-  <si>
-    <t>mendozakbro12@gmail.com</t>
   </si>
   <si>
     <t>Mendoza Kbro</t>
@@ -416,7 +401,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,56 +430,39 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{264A5E99-58E9-4C87-867D-652BA10EC301}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{A3EA566E-6E67-406F-9389-EE3C0162370E}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{17AA6D77-7989-4F47-B25E-90330A019E7F}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{F484A040-B818-4961-BFF8-A55E18B20FAB}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{C83F03DC-5CAE-4274-9D85-145C956F6A12}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>